--- a/Sowmya/My Schedule.xlsx
+++ b/Sowmya/My Schedule.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>S.No</t>
   </si>
@@ -29,6 +29,18 @@
   </si>
   <si>
     <t>Exercise Examples</t>
+  </si>
+  <si>
+    <t>ConsoleApp1</t>
+  </si>
+  <si>
+    <t>Class and objects</t>
+  </si>
+  <si>
+    <t>Variables,Properties,Operators,Datatypes</t>
+  </si>
+  <si>
+    <t>Schedule2</t>
   </si>
 </sst>
 </file>
@@ -402,19 +414,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.109375" customWidth="1"/>
+    <col min="3" max="3" width="16.109375" customWidth="1"/>
+    <col min="4" max="4" width="33.44140625" customWidth="1"/>
+    <col min="5" max="5" width="17.21875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
@@ -434,9 +446,26 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
